--- a/Moral Self-Regulation/MoralSelfRegInst.xlsx
+++ b/Moral Self-Regulation/MoralSelfRegInst.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\Helion Lab\Experiment Files\Moral Self-Regulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tul00635\Documents\GitHub\Self-Regulation-Psychopy-Files\Moral Self-Regulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C0282F-D9F7-4828-A02B-24E685B7B601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717591EC-F2E2-4DC8-8D46-A46990056D76}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,16 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Instructions</t>
-  </si>
-  <si>
-    <t>In this study you will be asked to evaluate a number of moral dilemmas under various conditions. 
-You will be presented with 10 different scenario contexts and will respond to 10 conditions for each one.
-For each scenario, you will proceed through four screens. The first three screens will start to describe a situation that you are hypothetically faced with and an action that you could perform in response to that situation. 
-When you are done reading each screen, you can press SPACE to move on to the next one.
-However, please try your best to get the fullest understanding of the scenario as described thus far before moving on to the next screen.</t>
   </si>
   <si>
     <t>The scenario description will include all the information you need to make your decision EXCEPT that it will not explicitly state the values for two features of the dilemma:
@@ -50,12 +42,6 @@
 The fourth and final screen will provide you with the prompt that you will be answering for each of these variations - namely, whether or not it is morally acceptable for you to perform the action in question.</t>
   </si>
   <si>
-    <t>After you answer you will again see a "+" in the middle of the screen, followed by the next trial. This will occur for 10 different variations of each scenario. 
-It is important that you try your best to judge each trial in isolation, and avoid consideration of past responses for the current scenario or past scenarios.
-You will only have 10 seconds to respond to each variation. If the "+" appears before you have responded, that means you are out of time. If this happens, do not attempt to respond. Simply look at the "+" and wait for the next trial. 
-Once you have pressed a button there is no way to go back to the previous screen. If you press the wrong button or if you press a button too soon, don't worry.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moral judgments can be difficult to make, and we understand that people sometimes change their minds about moral questions or feel conflicted about the answers they've given. Don't think of your answers as "written in stone." All we want from you is a thoughtful first response.
 While we want your answers to be thoughtful, you may find that in some cases the right answer seems immediately obvious. If that happens, it's okay to answer quickly. There are no trick questions, and in every case we have done our best to make the relevant information as clear as possible. 
 Note, however, that no two scenarios are the same, although many are similar to each other. To answer a question properly you will have to read it carefully because it will always be different in some way from the questions you have already answered. </t>
@@ -64,14 +50,6 @@
     <t xml:space="preserve">In some cases, you might feel that the situation we've described is not realistic. For example, it might say that if you do X, then Y will happen, and you might think that this is not realistic, that Y might not necessarily happen if you do X. If you find yourself having these sorts of doubts, you should suspend disbelief and assume that the situation really is the way it's described, even if it doesn't seem realistic to you.
 Likewise, you may feel that you need more information than is provided about the situation before you can give your answer. If this happens, you should make your best guess about what you think the situation is like without making any unneccessary assumptions. 
 For example, if it doesn't say that the other person in the situation is related to you, then you should assume that you and the other person are unrelated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you are done reading this screen you will begin two practice scenarios. 
-Once again, you can press SPACE to advance through the first four screens. Then you will encounter a number of trials which you will rate on a 1-7 scale, and press ENTER to submit your rating. 
-While you will see 10 such trials for each scenario in the actual experiment, you will only respond to 4 variations of each practice scenario.
-Furthermore, when the actual experiment begins there will be an additional 10 seconds of fixation before the scenario text comes up, while the scanner warms up. Please begin reading as usual when the text comes up.
-Press SPACE to begin the practice trials!
-</t>
   </si>
   <si>
     <t xml:space="preserve">After you have understood the scenario context and the question you will be answering, you can press SPACE to move on to the individual trials that will fill these gaps for you in the scenario.
@@ -81,11 +59,34 @@
 You will then indicate the course of action you would like to take in each scenario; by pressing either 'y' on your keyboard to indicate 'Yes', or 'n' to indicate 'No.'
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">When you are done reading this screen you will begin a practice scenario. 
+Once again, you can press SPACE to advance through the first five screens. Then you will encounter a number of trials which you will decide if you want to implement an action or not, by pressing the 'y' or 'n' key.
+Press SPACE to begin the practice trials!
+</t>
+  </si>
+  <si>
+    <t>In this study you will be asked to evaluate a number of moral dilemmas under various conditions. 
+You will be presented with 10 different scenario contexts and will respond to 5 conditions for each one.
+For each scenario, you will proceed through five screens. These screens will describe a situation that you are hypothetically faced with and an action that you could perform in response to that situation. 
+When you are done reading each screen, you can press SPACE to move on to the next one.
+However, please try your best to get the fullest understanding of the scenario as described thus far before moving on to the next screen.</t>
+  </si>
+  <si>
+    <t>After you answer you will again see a "+" in the middle of the screen, followed by the next trial. This will occur for 5 different variations of each scenario. 
+It is important that you try your best to judge each trial in isolation, and avoid consideration of past responses for the current scenario or past scenarios.
+Once you have pressed a button there is no way to go back to the previous screen. If you press the wrong button or if you press a button too soon, don't worry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, after reading the scenario you will be making decisions about, you will be given a regulation strategy. Please employ this regulation strategy when making your decisions. 
+You will be instructed to either "DE-EMPHASIZE" or "EMPHASIZE." When you see the word "DE-EMPHASIZE," we would like you to reinterpret the upcoming decision as one of many opportunities, and that the outcome is not very important. Try to think that the decision is not a big deal; you will have other chances.
+When you see the word "EMPHASIZE" we would like you to stress the importance of the upcoming decision. Please reinterpret the upcoming decision as very important and one in which you need to make the right choice. Try to think that it matters a lot what you choose. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,10 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,56 +437,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D275B1-8DDB-4F25-AE4B-CADFD9520854}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="159.21875" customWidth="1"/>
+    <col min="1" max="1" width="159.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Moral Self-Regulation/MoralSelfRegInst.xlsx
+++ b/Moral Self-Regulation/MoralSelfRegInst.xlsx
@@ -440,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
